--- a/AnalysisDone.xlsx
+++ b/AnalysisDone.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eraser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eraser\Desktop\dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8B5A4-7798-459D-987F-3EDC301BE9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2371C438-6F7F-403B-B614-A115A8EFD518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5532" yWindow="2712" windowWidth="22164" windowHeight="12660" xr2:uid="{AF4B9873-B17F-4386-9BF4-CA22224200A6}"/>
   </bookViews>
@@ -37,13 +37,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,6 +89,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>594360</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Start</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,14 +465,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4533F5B-6BC7-4DAA-AA68-8540495DDA6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4533F5B-6BC7-4DAA-AA68-8540495DDA6B}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Move_Cursor">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>594360</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>